--- a/data/survival/Broodstock_survival_20181112-20190221.xlsx
+++ b/data/survival/Broodstock_survival_20181112-20190221.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HHD/Documents/GitHub/paper-GeoduckReproDev_pH/data/survival/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485900E-2A1C-534B-A0C7-1CAFAC1AF0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B6A8A1-4AB3-6A4F-A74B-064FE1A02D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="23320" windowHeight="12720" activeTab="6" xr2:uid="{01F1A396-36CA-C649-98EC-A8EA62AB1979}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="50">
   <si>
     <t>TANK</t>
   </si>
@@ -182,12 +182,75 @@
   <si>
     <t>ambient (7.8)</t>
   </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ambiet </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (839 μatm)</t>
+    </r>
+  </si>
+  <si>
+    <t>high pCO2 (5430 μatm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +277,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,12 +312,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10106,7 +10184,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
@@ -10114,7 +10192,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -10128,7 +10206,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10148,7 +10226,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -10169,7 +10247,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10266,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -10207,7 +10285,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10224,15 +10302,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -10242,7 +10320,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -10258,7 +10336,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -10275,7 +10353,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -10292,7 +10370,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -10309,7 +10387,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -10326,23 +10404,23 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -10352,7 +10430,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -10368,7 +10446,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -10383,7 +10461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -10398,7 +10476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -10413,7 +10491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -10428,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -10436,7 +10514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -10450,7 +10528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -10465,7 +10543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -10480,7 +10558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -10495,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -10510,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -10527,7 +10605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -10548,7 +10626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -10557,7 +10635,7 @@
         <v>89.473684210526315</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:C39" si="0">C12/B12*100</f>
+        <f>C12/B12*100</f>
         <v>89.473684210526315</v>
       </c>
       <c r="D37" s="1">
@@ -10569,7 +10647,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -10578,7 +10656,7 @@
         <v>94.73684210526315</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f>C13/B13*100</f>
         <v>94.73684210526315</v>
       </c>
       <c r="D38" s="1">
@@ -10590,7 +10668,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -10599,7 +10677,7 @@
         <v>100</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f>C14/B14*100</f>
         <v>95</v>
       </c>
       <c r="D39" s="1">
@@ -10611,12 +10689,12 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -10633,7 +10711,7 @@
         <v>42.857142857142861</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -10650,12 +10728,12 @@
         <v>93.095238095238102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -10672,7 +10750,7 @@
         <v>10.101525445522084</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -10689,7 +10767,7 @@
         <v>0.3367175148507307</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -10697,7 +10775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -10705,7 +10783,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -10713,7 +10791,7 @@
         <v>3.6470000000000002E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -10721,7 +10799,7 @@
         <v>2.8289999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -10729,7 +10807,7 @@
         <v>5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -10737,7 +10815,7 @@
         <v>4.0889999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -10745,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -10765,7 +10843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -10785,7 +10863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -10805,7 +10883,7 @@
         <v>35.714285714285715</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -10825,7 +10903,7 @@
         <v>92.857142857142904</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -10845,12 +10923,12 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -10859,7 +10937,7 @@
         <v>100</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" ref="C69:E69" si="1">AVERAGE(C62:C63)</f>
+        <f>AVERAGE(C62:C63)</f>
         <v>92.105263157894754</v>
       </c>
       <c r="D69" s="1">
@@ -10867,15 +10945,15 @@
         <v>89.473684210526301</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E62:E63)</f>
         <v>57.89473684210526</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" ref="F69" si="2">AVERAGE(F62:F63)</f>
+        <f>AVERAGE(F62:F63)</f>
         <v>42.857142857142861</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -10884,28 +10962,28 @@
         <v>100</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70:E70" si="3">AVERAGE(C64:C65)</f>
+        <f>AVERAGE(C64:C65)</f>
         <v>97.368421052631575</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(D64:D65)</f>
         <v>94.868421052631575</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E64:E65)</f>
         <v>94.868421052631575</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70" si="4">AVERAGE(F64:F65)</f>
+        <f>AVERAGE(F64:F65)</f>
         <v>93.095238095238116</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
@@ -10914,23 +10992,23 @@
         <v>0</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ref="C73:E73" si="5">STDEV(C62:C63)</f>
+        <f>STDEV(C62:C63)</f>
         <v>3.7216146378239596</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="5"/>
+        <f>STDEV(D62:D63)</f>
         <v>1.4210854715202004E-14</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="5"/>
+        <f>STDEV(E62:E63)</f>
         <v>7.4432292756478695</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" ref="F73" si="6">STDEV(F62:F63)</f>
+        <f>STDEV(F62:F63)</f>
         <v>10.101525445522084</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -10939,19 +11017,19 @@
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:E74" si="7">STDEV(C64:C65)</f>
+        <f>STDEV(C64:C65)</f>
         <v>3.7216146378239396</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="7"/>
+        <f>STDEV(D64:D65)</f>
         <v>0.186080731891202</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="7"/>
+        <f>STDEV(E64:E65)</f>
         <v>0.186080731891202</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" ref="F74" si="8">STDEV(F64:F65)</f>
+        <f>STDEV(F64:F65)</f>
         <v>0.33671751485070056</v>
       </c>
     </row>
@@ -10972,9 +11050,9 @@
       <selection activeCell="D78" sqref="A1:D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10988,7 +11066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11002,7 +11080,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -11016,7 +11094,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -11030,7 +11108,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -11044,7 +11122,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -11058,7 +11136,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11072,7 +11150,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -11086,7 +11164,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11100,7 +11178,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11114,7 +11192,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11128,7 +11206,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -11142,7 +11220,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>0</v>
       </c>
@@ -11156,7 +11234,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11170,7 +11248,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>0</v>
       </c>
@@ -11184,7 +11262,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -11198,7 +11276,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11212,7 +11290,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>0</v>
       </c>
@@ -11226,7 +11304,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -11240,7 +11318,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>0</v>
       </c>
@@ -11254,7 +11332,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -11268,7 +11346,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>0</v>
       </c>
@@ -11282,7 +11360,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>0</v>
       </c>
@@ -11296,7 +11374,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>0</v>
       </c>
@@ -11310,7 +11388,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>0</v>
       </c>
@@ -11324,7 +11402,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0</v>
       </c>
@@ -11338,7 +11416,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -11352,7 +11430,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0</v>
       </c>
@@ -11366,7 +11444,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>0</v>
       </c>
@@ -11380,7 +11458,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>0</v>
       </c>
@@ -11394,7 +11472,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>0</v>
       </c>
@@ -11408,7 +11486,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>0</v>
       </c>
@@ -11422,7 +11500,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>0</v>
       </c>
@@ -11436,7 +11514,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>0</v>
       </c>
@@ -11450,7 +11528,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>0</v>
       </c>
@@ -11464,7 +11542,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>0</v>
       </c>
@@ -11478,7 +11556,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>0</v>
       </c>
@@ -11492,7 +11570,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>0</v>
       </c>
@@ -11506,7 +11584,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>0</v>
       </c>
@@ -11520,7 +11598,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>0</v>
       </c>
@@ -11534,7 +11612,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>0</v>
       </c>
@@ -11548,7 +11626,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>0</v>
       </c>
@@ -11562,7 +11640,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>0</v>
       </c>
@@ -11576,7 +11654,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>0</v>
       </c>
@@ -11590,7 +11668,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>0</v>
       </c>
@@ -11604,7 +11682,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>0</v>
       </c>
@@ -11618,7 +11696,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>0</v>
       </c>
@@ -11632,7 +11710,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>0</v>
       </c>
@@ -11646,7 +11724,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>0</v>
       </c>
@@ -11660,7 +11738,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>0</v>
       </c>
@@ -11674,7 +11752,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>0</v>
       </c>
@@ -11688,7 +11766,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>0</v>
       </c>
@@ -11702,7 +11780,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>0</v>
       </c>
@@ -11716,7 +11794,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>0</v>
       </c>
@@ -11730,7 +11808,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>0</v>
       </c>
@@ -11744,7 +11822,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>0</v>
       </c>
@@ -11758,7 +11836,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>0</v>
       </c>
@@ -11772,7 +11850,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>0</v>
       </c>
@@ -11786,7 +11864,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>0</v>
       </c>
@@ -11800,7 +11878,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>0</v>
       </c>
@@ -11814,7 +11892,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11828,7 +11906,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>0</v>
       </c>
@@ -11842,7 +11920,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>0</v>
       </c>
@@ -11856,7 +11934,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>0</v>
       </c>
@@ -11870,7 +11948,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>0</v>
       </c>
@@ -11884,7 +11962,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>0</v>
       </c>
@@ -11898,7 +11976,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>0</v>
       </c>
@@ -11912,7 +11990,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>0</v>
       </c>
@@ -11926,7 +12004,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>0</v>
       </c>
@@ -11940,7 +12018,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>0</v>
       </c>
@@ -11954,7 +12032,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>0</v>
       </c>
@@ -11968,7 +12046,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>0</v>
       </c>
@@ -11982,7 +12060,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>0</v>
       </c>
@@ -11996,7 +12074,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>0</v>
       </c>
@@ -12010,7 +12088,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>0</v>
       </c>
@@ -12024,7 +12102,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>0</v>
       </c>
@@ -12038,7 +12116,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>0</v>
       </c>
@@ -12052,7 +12130,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>0</v>
       </c>
@@ -12079,9 +12157,9 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -12095,7 +12173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>30</v>
       </c>
@@ -12109,7 +12187,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>30</v>
       </c>
@@ -12123,7 +12201,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>30</v>
       </c>
@@ -12137,7 +12215,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>30</v>
       </c>
@@ -12151,7 +12229,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>30</v>
       </c>
@@ -12165,7 +12243,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>30</v>
       </c>
@@ -12179,7 +12257,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>30</v>
       </c>
@@ -12193,7 +12271,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>30</v>
       </c>
@@ -12207,7 +12285,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>30</v>
       </c>
@@ -12221,7 +12299,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -12235,7 +12313,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>30</v>
       </c>
@@ -12249,7 +12327,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>30</v>
       </c>
@@ -12263,7 +12341,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>30</v>
       </c>
@@ -12277,7 +12355,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>30</v>
       </c>
@@ -12291,7 +12369,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>30</v>
       </c>
@@ -12305,7 +12383,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>30</v>
       </c>
@@ -12319,7 +12397,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>30</v>
       </c>
@@ -12333,7 +12411,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>30</v>
       </c>
@@ -12347,7 +12425,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>30</v>
       </c>
@@ -12361,7 +12439,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>30</v>
       </c>
@@ -12375,7 +12453,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>30</v>
       </c>
@@ -12389,7 +12467,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>30</v>
       </c>
@@ -12403,7 +12481,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>30</v>
       </c>
@@ -12417,7 +12495,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>30</v>
       </c>
@@ -12431,7 +12509,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>30</v>
       </c>
@@ -12445,7 +12523,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>30</v>
       </c>
@@ -12459,7 +12537,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>30</v>
       </c>
@@ -12473,7 +12551,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>30</v>
       </c>
@@ -12487,7 +12565,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -12501,7 +12579,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12515,7 +12593,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12529,7 +12607,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>30</v>
       </c>
@@ -12543,7 +12621,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>30</v>
       </c>
@@ -12557,7 +12635,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>30</v>
       </c>
@@ -12571,7 +12649,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>30</v>
       </c>
@@ -12585,7 +12663,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>30</v>
       </c>
@@ -12599,7 +12677,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>30</v>
       </c>
@@ -12613,7 +12691,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>30</v>
       </c>
@@ -12627,7 +12705,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>30</v>
       </c>
@@ -12641,7 +12719,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>30</v>
       </c>
@@ -12655,7 +12733,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>30</v>
       </c>
@@ -12669,7 +12747,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>30</v>
       </c>
@@ -12683,7 +12761,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>30</v>
       </c>
@@ -12697,7 +12775,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>30</v>
       </c>
@@ -12711,7 +12789,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>30</v>
       </c>
@@ -12725,7 +12803,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>30</v>
       </c>
@@ -12739,7 +12817,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>30</v>
       </c>
@@ -12753,7 +12831,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>30</v>
       </c>
@@ -12767,7 +12845,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>30</v>
       </c>
@@ -12781,7 +12859,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>30</v>
       </c>
@@ -12795,7 +12873,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>30</v>
       </c>
@@ -12809,7 +12887,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>30</v>
       </c>
@@ -12823,7 +12901,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>30</v>
       </c>
@@ -12837,7 +12915,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>30</v>
       </c>
@@ -12851,7 +12929,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>30</v>
       </c>
@@ -12865,7 +12943,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>30</v>
       </c>
@@ -12879,7 +12957,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>30</v>
       </c>
@@ -12893,7 +12971,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>30</v>
       </c>
@@ -12907,7 +12985,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>30</v>
       </c>
@@ -12921,7 +12999,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>30</v>
       </c>
@@ -12935,7 +13013,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>30</v>
       </c>
@@ -12949,7 +13027,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>30</v>
       </c>
@@ -12963,7 +13041,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>30</v>
       </c>
@@ -12977,7 +13055,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>30</v>
       </c>
@@ -12991,7 +13069,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>30</v>
       </c>
@@ -13005,7 +13083,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>30</v>
       </c>
@@ -13019,7 +13097,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>30</v>
       </c>
@@ -13033,7 +13111,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>30</v>
       </c>
@@ -13047,7 +13125,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>30</v>
       </c>
@@ -13061,7 +13139,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>30</v>
       </c>
@@ -13075,7 +13153,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>30</v>
       </c>
@@ -13089,7 +13167,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>30</v>
       </c>
@@ -13103,7 +13181,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>30</v>
       </c>
@@ -13117,7 +13195,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>30</v>
       </c>
@@ -13131,7 +13209,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>30</v>
       </c>
@@ -13145,7 +13223,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>30</v>
       </c>
@@ -13159,7 +13237,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>30</v>
       </c>
@@ -13186,9 +13264,9 @@
       <selection activeCell="D74" sqref="A74:D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -13202,7 +13280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>37</v>
       </c>
@@ -13216,7 +13294,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>37</v>
       </c>
@@ -13230,7 +13308,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>37</v>
       </c>
@@ -13244,7 +13322,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>37</v>
       </c>
@@ -13258,7 +13336,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>37</v>
       </c>
@@ -13272,7 +13350,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>37</v>
       </c>
@@ -13286,7 +13364,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>37</v>
       </c>
@@ -13300,7 +13378,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>37</v>
       </c>
@@ -13314,7 +13392,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>37</v>
       </c>
@@ -13328,7 +13406,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>37</v>
       </c>
@@ -13342,7 +13420,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>37</v>
       </c>
@@ -13356,7 +13434,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>37</v>
       </c>
@@ -13370,7 +13448,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>37</v>
       </c>
@@ -13384,7 +13462,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>37</v>
       </c>
@@ -13398,7 +13476,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>37</v>
       </c>
@@ -13412,7 +13490,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>37</v>
       </c>
@@ -13426,7 +13504,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>37</v>
       </c>
@@ -13440,7 +13518,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>37</v>
       </c>
@@ -13454,7 +13532,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -13468,7 +13546,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>37</v>
       </c>
@@ -13482,7 +13560,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>37</v>
       </c>
@@ -13496,7 +13574,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>37</v>
       </c>
@@ -13510,7 +13588,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>37</v>
       </c>
@@ -13524,7 +13602,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>37</v>
       </c>
@@ -13538,7 +13616,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>37</v>
       </c>
@@ -13552,7 +13630,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>37</v>
       </c>
@@ -13566,7 +13644,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>37</v>
       </c>
@@ -13580,7 +13658,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>37</v>
       </c>
@@ -13594,7 +13672,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>37</v>
       </c>
@@ -13608,7 +13686,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>37</v>
       </c>
@@ -13622,7 +13700,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>37</v>
       </c>
@@ -13636,7 +13714,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -13650,7 +13728,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>37</v>
       </c>
@@ -13664,7 +13742,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>37</v>
       </c>
@@ -13678,7 +13756,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -13692,7 +13770,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -13706,7 +13784,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -13720,7 +13798,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -13734,7 +13812,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -13748,7 +13826,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -13762,7 +13840,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -13776,7 +13854,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -13790,7 +13868,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>37</v>
       </c>
@@ -13804,7 +13882,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>37</v>
       </c>
@@ -13818,7 +13896,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -13832,7 +13910,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>37</v>
       </c>
@@ -13846,7 +13924,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>37</v>
       </c>
@@ -13860,7 +13938,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>37</v>
       </c>
@@ -13874,7 +13952,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>37</v>
       </c>
@@ -13888,7 +13966,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>37</v>
       </c>
@@ -13902,7 +13980,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>37</v>
       </c>
@@ -13916,7 +13994,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -13930,7 +14008,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>37</v>
       </c>
@@ -13944,7 +14022,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>37</v>
       </c>
@@ -13958,7 +14036,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>37</v>
       </c>
@@ -13972,7 +14050,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>37</v>
       </c>
@@ -13986,7 +14064,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>37</v>
       </c>
@@ -14000,7 +14078,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>37</v>
       </c>
@@ -14014,7 +14092,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>37</v>
       </c>
@@ -14028,7 +14106,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>37</v>
       </c>
@@ -14042,7 +14120,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>37</v>
       </c>
@@ -14056,7 +14134,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>37</v>
       </c>
@@ -14070,7 +14148,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>37</v>
       </c>
@@ -14084,7 +14162,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>37</v>
       </c>
@@ -14098,7 +14176,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>37</v>
       </c>
@@ -14112,7 +14190,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>37</v>
       </c>
@@ -14126,7 +14204,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>37</v>
       </c>
@@ -14140,7 +14218,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>37</v>
       </c>
@@ -14154,7 +14232,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>37</v>
       </c>
@@ -14168,7 +14246,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>37</v>
       </c>
@@ -14182,7 +14260,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>37</v>
       </c>
@@ -14196,7 +14274,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>37</v>
       </c>
@@ -14210,7 +14288,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>37</v>
       </c>
@@ -14237,9 +14315,9 @@
       <selection activeCell="A14" sqref="A14:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -14253,7 +14331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>72</v>
       </c>
@@ -14267,7 +14345,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>72</v>
       </c>
@@ -14281,7 +14359,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>72</v>
       </c>
@@ -14295,7 +14373,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>72</v>
       </c>
@@ -14309,7 +14387,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>72</v>
       </c>
@@ -14323,7 +14401,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>72</v>
       </c>
@@ -14337,7 +14415,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>72</v>
       </c>
@@ -14351,7 +14429,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>72</v>
       </c>
@@ -14365,7 +14443,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>72</v>
       </c>
@@ -14379,7 +14457,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>72</v>
       </c>
@@ -14393,7 +14471,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>72</v>
       </c>
@@ -14407,7 +14485,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -14421,7 +14499,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>72</v>
       </c>
@@ -14435,7 +14513,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>72</v>
       </c>
@@ -14449,7 +14527,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>72</v>
       </c>
@@ -14463,7 +14541,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>72</v>
       </c>
@@ -14477,7 +14555,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>72</v>
       </c>
@@ -14491,7 +14569,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>72</v>
       </c>
@@ -14505,7 +14583,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>72</v>
       </c>
@@ -14519,7 +14597,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>72</v>
       </c>
@@ -14533,7 +14611,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>72</v>
       </c>
@@ -14547,7 +14625,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>72</v>
       </c>
@@ -14561,7 +14639,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>72</v>
       </c>
@@ -14575,7 +14653,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>72</v>
       </c>
@@ -14589,7 +14667,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>72</v>
       </c>
@@ -14603,7 +14681,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>72</v>
       </c>
@@ -14617,7 +14695,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>72</v>
       </c>
@@ -14631,7 +14709,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>72</v>
       </c>
@@ -14645,7 +14723,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>72</v>
       </c>
@@ -14659,7 +14737,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>72</v>
       </c>
@@ -14673,7 +14751,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>72</v>
       </c>
@@ -14687,7 +14765,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>72</v>
       </c>
@@ -14701,7 +14779,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>72</v>
       </c>
@@ -14715,7 +14793,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>72</v>
       </c>
@@ -14729,7 +14807,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>72</v>
       </c>
@@ -14743,7 +14821,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>72</v>
       </c>
@@ -14757,7 +14835,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>72</v>
       </c>
@@ -14771,7 +14849,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>72</v>
       </c>
@@ -14785,7 +14863,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>72</v>
       </c>
@@ -14799,7 +14877,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>72</v>
       </c>
@@ -14813,7 +14891,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>72</v>
       </c>
@@ -14827,7 +14905,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>72</v>
       </c>
@@ -14841,7 +14919,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>72</v>
       </c>
@@ -14855,7 +14933,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>72</v>
       </c>
@@ -14869,7 +14947,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>72</v>
       </c>
@@ -14883,7 +14961,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>72</v>
       </c>
@@ -14897,7 +14975,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>72</v>
       </c>
@@ -14911,7 +14989,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>72</v>
       </c>
@@ -14925,7 +15003,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>72</v>
       </c>
@@ -14939,7 +15017,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>72</v>
       </c>
@@ -14953,7 +15031,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>72</v>
       </c>
@@ -14967,7 +15045,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>72</v>
       </c>
@@ -14981,7 +15059,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>72</v>
       </c>
@@ -14995,7 +15073,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -15009,7 +15087,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>72</v>
       </c>
@@ -15023,7 +15101,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>72</v>
       </c>
@@ -15037,7 +15115,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>72</v>
       </c>
@@ -15051,7 +15129,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -15065,7 +15143,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>72</v>
       </c>
@@ -15079,7 +15157,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>72</v>
       </c>
@@ -15093,7 +15171,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>72</v>
       </c>
@@ -15107,7 +15185,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>72</v>
       </c>
@@ -15121,7 +15199,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>72</v>
       </c>
@@ -15135,7 +15213,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>72</v>
       </c>
@@ -15149,7 +15227,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>72</v>
       </c>
@@ -15163,7 +15241,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>72</v>
       </c>
@@ -15177,7 +15255,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>72</v>
       </c>
@@ -15191,7 +15269,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>72</v>
       </c>
@@ -15205,7 +15283,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>72</v>
       </c>
@@ -15219,7 +15297,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>72</v>
       </c>
@@ -15233,7 +15311,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>72</v>
       </c>
@@ -15260,9 +15338,9 @@
       <selection activeCell="A2" sqref="A2:D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -15276,7 +15354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>93</v>
       </c>
@@ -15290,7 +15368,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>93</v>
       </c>
@@ -15304,7 +15382,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>93</v>
       </c>
@@ -15318,7 +15396,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>93</v>
       </c>
@@ -15332,7 +15410,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>93</v>
       </c>
@@ -15346,7 +15424,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>93</v>
       </c>
@@ -15360,7 +15438,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>93</v>
       </c>
@@ -15374,7 +15452,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>93</v>
       </c>
@@ -15388,7 +15466,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>93</v>
       </c>
@@ -15402,7 +15480,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>93</v>
       </c>
@@ -15416,7 +15494,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>93</v>
       </c>
@@ -15430,7 +15508,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>93</v>
       </c>
@@ -15444,7 +15522,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>93</v>
       </c>
@@ -15458,7 +15536,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>93</v>
       </c>
@@ -15472,7 +15550,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>93</v>
       </c>
@@ -15486,7 +15564,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>93</v>
       </c>
@@ -15500,7 +15578,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>93</v>
       </c>
@@ -15514,7 +15592,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>93</v>
       </c>
@@ -15528,7 +15606,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>93</v>
       </c>
@@ -15542,7 +15620,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>93</v>
       </c>
@@ -15556,7 +15634,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>93</v>
       </c>
@@ -15570,7 +15648,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>93</v>
       </c>
@@ -15584,7 +15662,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>93</v>
       </c>
@@ -15598,7 +15676,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>93</v>
       </c>
@@ -15612,7 +15690,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>93</v>
       </c>
@@ -15626,7 +15704,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>93</v>
       </c>
@@ -15640,7 +15718,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>93</v>
       </c>
@@ -15654,7 +15732,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>93</v>
       </c>
@@ -15668,7 +15746,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>93</v>
       </c>
@@ -15682,7 +15760,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>93</v>
       </c>
@@ -15696,7 +15774,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>93</v>
       </c>
@@ -15710,7 +15788,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>93</v>
       </c>
@@ -15724,7 +15802,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>93</v>
       </c>
@@ -15738,7 +15816,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>93</v>
       </c>
@@ -15752,7 +15830,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>93</v>
       </c>
@@ -15766,7 +15844,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>93</v>
       </c>
@@ -15780,7 +15858,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>93</v>
       </c>
@@ -15794,7 +15872,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>93</v>
       </c>
@@ -15808,7 +15886,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>93</v>
       </c>
@@ -15829,15 +15907,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8001183-188E-064E-A825-59147773E34E}">
-  <dimension ref="A1:D338"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E78" sqref="E1:E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -15850,8 +15928,11 @@
       <c r="D1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
       <c r="A2">
         <v>30</v>
       </c>
@@ -15864,8 +15945,11 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18">
       <c r="A3">
         <v>30</v>
       </c>
@@ -15878,8 +15962,11 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18">
       <c r="A4">
         <v>30</v>
       </c>
@@ -15892,8 +15979,11 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18">
       <c r="A5">
         <v>30</v>
       </c>
@@ -15906,8 +15996,11 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18">
       <c r="A6" s="4">
         <v>37</v>
       </c>
@@ -15920,8 +16013,11 @@
       <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18">
       <c r="A7" s="4">
         <v>37</v>
       </c>
@@ -15934,8 +16030,11 @@
       <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18">
       <c r="A8" s="4">
         <v>72</v>
       </c>
@@ -15948,8 +16047,11 @@
       <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18">
       <c r="A9" s="4">
         <v>72</v>
       </c>
@@ -15962,8 +16064,11 @@
       <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
       <c r="A10" s="4">
         <v>72</v>
       </c>
@@ -15976,8 +16081,11 @@
       <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18">
       <c r="A11" s="4">
         <v>72</v>
       </c>
@@ -15990,8 +16098,11 @@
       <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
       <c r="A12" s="4">
         <v>72</v>
       </c>
@@ -16004,8 +16115,11 @@
       <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
       <c r="A13" s="4">
         <v>72</v>
       </c>
@@ -16018,8 +16132,11 @@
       <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
       <c r="A14" s="4">
         <v>72</v>
       </c>
@@ -16032,8 +16149,11 @@
       <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
       <c r="A15" s="4">
         <v>72</v>
       </c>
@@ -16046,8 +16166,11 @@
       <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
       <c r="A16" s="4">
         <v>72</v>
       </c>
@@ -16060,8 +16183,11 @@
       <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18">
       <c r="A17" s="4">
         <v>72</v>
       </c>
@@ -16074,8 +16200,11 @@
       <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18">
       <c r="A18" s="4">
         <v>72</v>
       </c>
@@ -16088,8 +16217,11 @@
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18">
       <c r="A19" s="4">
         <v>72</v>
       </c>
@@ -16102,8 +16234,11 @@
       <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18">
       <c r="A20" s="4">
         <v>72</v>
       </c>
@@ -16116,8 +16251,11 @@
       <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" s="4">
         <v>72</v>
       </c>
@@ -16130,8 +16268,11 @@
       <c r="D21" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
       <c r="A22" s="4">
         <v>72</v>
       </c>
@@ -16144,8 +16285,11 @@
       <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18">
       <c r="A23" s="4">
         <v>72</v>
       </c>
@@ -16158,8 +16302,11 @@
       <c r="D23" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
       <c r="A24" s="4">
         <v>72</v>
       </c>
@@ -16172,8 +16319,11 @@
       <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18">
       <c r="A25" s="4">
         <v>72</v>
       </c>
@@ -16186,8 +16336,11 @@
       <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18">
       <c r="A26" s="4">
         <v>72</v>
       </c>
@@ -16200,8 +16353,11 @@
       <c r="D26" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
       <c r="A27" s="4">
         <v>72</v>
       </c>
@@ -16214,8 +16370,11 @@
       <c r="D27" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18">
       <c r="A28" s="4">
         <v>72</v>
       </c>
@@ -16228,8 +16387,11 @@
       <c r="D28" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18">
       <c r="A29" s="4">
         <v>72</v>
       </c>
@@ -16242,8 +16404,11 @@
       <c r="D29" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18">
       <c r="A30" s="4">
         <v>72</v>
       </c>
@@ -16256,8 +16421,11 @@
       <c r="D30" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18">
       <c r="A31" s="4">
         <v>72</v>
       </c>
@@ -16270,8 +16438,11 @@
       <c r="D31" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18">
       <c r="A32" s="4">
         <v>72</v>
       </c>
@@ -16284,8 +16455,11 @@
       <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18">
       <c r="A33" s="4">
         <v>72</v>
       </c>
@@ -16298,8 +16472,11 @@
       <c r="D33" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18">
       <c r="A34" s="4">
         <v>72</v>
       </c>
@@ -16312,8 +16489,11 @@
       <c r="D34" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18">
       <c r="A35" s="4">
         <v>72</v>
       </c>
@@ -16326,8 +16506,11 @@
       <c r="D35" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18">
       <c r="A36" s="4">
         <v>72</v>
       </c>
@@ -16340,8 +16523,11 @@
       <c r="D36" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18">
       <c r="A37" s="4">
         <v>72</v>
       </c>
@@ -16354,8 +16540,11 @@
       <c r="D37" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18">
       <c r="A38" s="4">
         <v>72</v>
       </c>
@@ -16368,8 +16557,11 @@
       <c r="D38" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18">
       <c r="A39" s="4">
         <v>72</v>
       </c>
@@ -16382,8 +16574,11 @@
       <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18">
       <c r="A40" s="4">
         <v>93</v>
       </c>
@@ -16396,8 +16591,11 @@
       <c r="D40" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18">
       <c r="A41" s="4">
         <v>93</v>
       </c>
@@ -16410,8 +16608,11 @@
       <c r="D41" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18">
       <c r="A42" s="4">
         <v>93</v>
       </c>
@@ -16424,8 +16625,11 @@
       <c r="D42" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18">
       <c r="A43" s="4">
         <v>93</v>
       </c>
@@ -16438,8 +16642,11 @@
       <c r="D43" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18">
       <c r="A44" s="4">
         <v>93</v>
       </c>
@@ -16452,8 +16659,11 @@
       <c r="D44" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18">
       <c r="A45" s="4">
         <v>93</v>
       </c>
@@ -16466,8 +16676,11 @@
       <c r="D45" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18">
       <c r="A46" s="4">
         <v>93</v>
       </c>
@@ -16480,8 +16693,11 @@
       <c r="D46" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18">
       <c r="A47" s="4">
         <v>93</v>
       </c>
@@ -16494,8 +16710,11 @@
       <c r="D47" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18">
       <c r="A48" s="4">
         <v>93</v>
       </c>
@@ -16508,8 +16727,11 @@
       <c r="D48" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18">
       <c r="A49" s="4">
         <v>93</v>
       </c>
@@ -16522,8 +16744,11 @@
       <c r="D49" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18">
       <c r="A50" s="4">
         <v>93</v>
       </c>
@@ -16536,8 +16761,11 @@
       <c r="D50" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18">
       <c r="A51" s="4">
         <v>93</v>
       </c>
@@ -16550,8 +16778,11 @@
       <c r="D51" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18">
       <c r="A52" s="4">
         <v>93</v>
       </c>
@@ -16564,8 +16795,11 @@
       <c r="D52" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18">
       <c r="A53" s="4">
         <v>93</v>
       </c>
@@ -16578,8 +16812,11 @@
       <c r="D53" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18">
       <c r="A54" s="4">
         <v>93</v>
       </c>
@@ -16592,8 +16829,11 @@
       <c r="D54" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18">
       <c r="A55" s="4">
         <v>93</v>
       </c>
@@ -16606,8 +16846,11 @@
       <c r="D55" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18">
       <c r="A56" s="4">
         <v>93</v>
       </c>
@@ -16620,8 +16863,11 @@
       <c r="D56" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18">
       <c r="A57" s="4">
         <v>93</v>
       </c>
@@ -16634,8 +16880,11 @@
       <c r="D57" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18">
       <c r="A58" s="4">
         <v>93</v>
       </c>
@@ -16648,8 +16897,11 @@
       <c r="D58" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18">
       <c r="A59" s="4">
         <v>93</v>
       </c>
@@ -16662,8 +16914,11 @@
       <c r="D59" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18">
       <c r="A60" s="4">
         <v>93</v>
       </c>
@@ -16676,8 +16931,11 @@
       <c r="D60" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18">
       <c r="A61" s="4">
         <v>93</v>
       </c>
@@ -16690,8 +16948,11 @@
       <c r="D61" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18">
       <c r="A62" s="4">
         <v>93</v>
       </c>
@@ -16704,8 +16965,11 @@
       <c r="D62" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18">
       <c r="A63" s="4">
         <v>93</v>
       </c>
@@ -16718,8 +16982,11 @@
       <c r="D63" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18">
       <c r="A64" s="4">
         <v>93</v>
       </c>
@@ -16732,8 +16999,11 @@
       <c r="D64" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18">
       <c r="A65" s="4">
         <v>93</v>
       </c>
@@ -16746,8 +17016,11 @@
       <c r="D65" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18">
       <c r="A66" s="4">
         <v>93</v>
       </c>
@@ -16760,8 +17033,11 @@
       <c r="D66" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18">
       <c r="A67" s="4">
         <v>93</v>
       </c>
@@ -16774,8 +17050,11 @@
       <c r="D67" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18">
       <c r="A68" s="4">
         <v>93</v>
       </c>
@@ -16788,8 +17067,11 @@
       <c r="D68" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18">
       <c r="A69" s="4">
         <v>93</v>
       </c>
@@ -16802,8 +17084,11 @@
       <c r="D69" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18">
       <c r="A70" s="4">
         <v>93</v>
       </c>
@@ -16816,8 +17101,11 @@
       <c r="D70" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18">
       <c r="A71" s="4">
         <v>93</v>
       </c>
@@ -16830,8 +17118,11 @@
       <c r="D71" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18">
       <c r="A72" s="4">
         <v>93</v>
       </c>
@@ -16844,8 +17135,11 @@
       <c r="D72" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18">
       <c r="A73" s="4">
         <v>93</v>
       </c>
@@ -16858,8 +17152,11 @@
       <c r="D73" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18">
       <c r="A74" s="4">
         <v>93</v>
       </c>
@@ -16872,8 +17169,11 @@
       <c r="D74" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18">
       <c r="A75" s="4">
         <v>93</v>
       </c>
@@ -16886,8 +17186,11 @@
       <c r="D75" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="18">
       <c r="A76" s="4">
         <v>93</v>
       </c>
@@ -16900,8 +17203,11 @@
       <c r="D76" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="18">
       <c r="A77" s="4">
         <v>93</v>
       </c>
@@ -16914,8 +17220,11 @@
       <c r="D77" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="18">
       <c r="A78" s="4">
         <v>93</v>
       </c>
@@ -16928,1200 +17237,1203 @@
       <c r="D78" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -18140,9 +18452,9 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18162,7 +18474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>3.1</v>
       </c>
@@ -18186,7 +18498,7 @@
         <v>17.391304347826086</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3.2</v>
       </c>
@@ -18210,7 +18522,7 @@
         <v>12.962962962962962</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3.3</v>
       </c>
@@ -18234,7 +18546,7 @@
         <v>6.5217391304347823</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3.4</v>
       </c>
@@ -18258,7 +18570,7 @@
         <v>5.2631578947368416</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3.5</v>
       </c>
@@ -18282,7 +18594,7 @@
         <v>2.112676056338028</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3.8</v>
       </c>
@@ -18306,7 +18618,7 @@
         <v>9.433962264150944</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3.9</v>
       </c>
@@ -18330,7 +18642,7 @@
         <v>7.9646017699115044</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>3.1</v>
       </c>
@@ -18354,7 +18666,7 @@
         <v>8.791208791208792</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3.11</v>
       </c>
@@ -18378,7 +18690,7 @@
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>3.12</v>
       </c>
@@ -18402,7 +18714,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -18410,7 +18722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -18422,7 +18734,7 @@
         <v>8.8503680784597414</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -18431,7 +18743,7 @@
         <v>7.5772402793399625</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -18443,7 +18755,7 @@
         <v>6.1957266019847737</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>34</v>
       </c>
